--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2643043.213525163</v>
+        <v>-2645409.930095719</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7240286.839065501</v>
+        <v>7240286.839065491</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>10.27816311523384</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.43091560635786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4861680993369</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>172.8743455285722</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>186.7946578787481</v>
+        <v>94.24717300068225</v>
       </c>
       <c r="T2" t="n">
         <v>218.8263272492847</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2676262293242</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>140.1367932852997</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.7362405617337</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>67.75739391928596</v>
+        <v>67.75739391928605</v>
       </c>
       <c r="S3" t="n">
         <v>161.9900470300693</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.52729852330255</v>
+        <v>49.52729852330265</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>157.6217544836047</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>226.0762668767296</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>34.33805734428289</v>
       </c>
       <c r="V4" t="n">
-        <v>191.9598118278886</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253827</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.91242278797893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>126.095523708391</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,7 +1938,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2722,7 +2722,7 @@
         <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433948</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2965,10 +2965,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572899</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.7587050448884</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374604</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3664,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433862</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870211</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687285</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.8641646672675</v>
+        <v>51.76688412209964</v>
       </c>
       <c r="C2" t="n">
-        <v>941.8641646672675</v>
+        <v>51.76688412209964</v>
       </c>
       <c r="D2" t="n">
-        <v>583.598466060517</v>
+        <v>41.384901177419</v>
       </c>
       <c r="E2" t="n">
-        <v>583.598466060517</v>
+        <v>41.384901177419</v>
       </c>
       <c r="F2" t="n">
-        <v>583.598466060517</v>
+        <v>41.384901177419</v>
       </c>
       <c r="G2" t="n">
-        <v>548.8197634278323</v>
+        <v>41.384901177419</v>
       </c>
       <c r="H2" t="n">
-        <v>216.0054522163809</v>
+        <v>41.384901177419</v>
       </c>
       <c r="I2" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5075126830054</v>
+        <v>111.5075126830051</v>
       </c>
       <c r="K2" t="n">
-        <v>337.34793416574</v>
+        <v>337.3479341657394</v>
       </c>
       <c r="L2" t="n">
-        <v>669.7995747334178</v>
+        <v>669.799574733417</v>
       </c>
       <c r="M2" t="n">
-        <v>1056.322626911263</v>
+        <v>1056.322626911262</v>
       </c>
       <c r="N2" t="n">
-        <v>1434.468028624943</v>
+        <v>1434.468028624941</v>
       </c>
       <c r="O2" t="n">
-        <v>1746.352370691376</v>
+        <v>1746.352370691374</v>
       </c>
       <c r="P2" t="n">
-        <v>1974.864058038269</v>
+        <v>1974.864058038266</v>
       </c>
       <c r="Q2" t="n">
-        <v>2069.245058870953</v>
+        <v>2069.24505887095</v>
       </c>
       <c r="R2" t="n">
-        <v>2069.245058870953</v>
+        <v>2069.24505887095</v>
       </c>
       <c r="S2" t="n">
-        <v>1880.563586266157</v>
+        <v>1974.045894223796</v>
       </c>
       <c r="T2" t="n">
-        <v>1659.52689207496</v>
+        <v>1753.009200032599</v>
       </c>
       <c r="U2" t="n">
-        <v>1659.52689207496</v>
+        <v>1499.203516972676</v>
       </c>
       <c r="V2" t="n">
-        <v>1328.464004731389</v>
+        <v>1168.140629629105</v>
       </c>
       <c r="W2" t="n">
-        <v>1328.464004731389</v>
+        <v>815.3719743589913</v>
       </c>
       <c r="X2" t="n">
-        <v>1328.464004731389</v>
+        <v>441.9062160979114</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.464004731389</v>
+        <v>51.76688412209964</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.7094678613935</v>
+        <v>362.3724884316611</v>
       </c>
       <c r="C3" t="n">
-        <v>335.7094678613935</v>
+        <v>187.919459150534</v>
       </c>
       <c r="D3" t="n">
-        <v>335.7094678613935</v>
+        <v>187.919459150534</v>
       </c>
       <c r="E3" t="n">
-        <v>176.472012855938</v>
+        <v>187.919459150534</v>
       </c>
       <c r="F3" t="n">
-        <v>176.472012855938</v>
+        <v>41.384901177419</v>
       </c>
       <c r="G3" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="H3" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="I3" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="J3" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="K3" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8070759580332</v>
+        <v>383.5226295249162</v>
       </c>
       <c r="M3" t="n">
-        <v>802.0448889857735</v>
+        <v>802.0448889857716</v>
       </c>
       <c r="N3" t="n">
-        <v>1280.932637611797</v>
+        <v>1280.932637611795</v>
       </c>
       <c r="O3" t="n">
-        <v>1652.605691037772</v>
+        <v>1652.60569103777</v>
       </c>
       <c r="P3" t="n">
-        <v>1933.903016009918</v>
+        <v>1933.903016009916</v>
       </c>
       <c r="Q3" t="n">
-        <v>2069.245058870953</v>
+        <v>2069.24505887095</v>
       </c>
       <c r="R3" t="n">
-        <v>2000.80324683127</v>
+        <v>2000.803246831267</v>
       </c>
       <c r="S3" t="n">
-        <v>1837.176936699886</v>
+        <v>1837.176936699884</v>
       </c>
       <c r="T3" t="n">
-        <v>1637.11500808701</v>
+        <v>1637.115008087007</v>
       </c>
       <c r="U3" t="n">
-        <v>1408.926068811892</v>
+        <v>1408.92606881189</v>
       </c>
       <c r="V3" t="n">
-        <v>1173.77396058015</v>
+        <v>1173.773960580147</v>
       </c>
       <c r="W3" t="n">
-        <v>919.5366038519483</v>
+        <v>919.5366038519455</v>
       </c>
       <c r="X3" t="n">
-        <v>711.6851036464154</v>
+        <v>711.6851036464127</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.9248048814615</v>
+        <v>503.9248048814588</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="C4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="D4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="E4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="F4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="G4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="H4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="I4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="J4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="K4" t="n">
-        <v>69.65947190116611</v>
+        <v>69.65947190116592</v>
       </c>
       <c r="L4" t="n">
-        <v>161.367622436535</v>
+        <v>161.3676224365346</v>
       </c>
       <c r="M4" t="n">
-        <v>268.4501318390649</v>
+        <v>268.4501318390643</v>
       </c>
       <c r="N4" t="n">
-        <v>378.4210749310325</v>
+        <v>378.4210749310317</v>
       </c>
       <c r="O4" t="n">
-        <v>463.9807446748956</v>
+        <v>463.9807446748947</v>
       </c>
       <c r="P4" t="n">
-        <v>513.6711408015815</v>
+        <v>513.6711408015805</v>
       </c>
       <c r="Q4" t="n">
-        <v>463.6435665356193</v>
+        <v>463.6435665356182</v>
       </c>
       <c r="R4" t="n">
-        <v>463.6435665356193</v>
+        <v>304.4296731178357</v>
       </c>
       <c r="S4" t="n">
-        <v>463.6435665356193</v>
+        <v>304.4296731178357</v>
       </c>
       <c r="T4" t="n">
-        <v>235.2837010035691</v>
+        <v>76.06980758578555</v>
       </c>
       <c r="U4" t="n">
-        <v>235.2837010035691</v>
+        <v>41.384901177419</v>
       </c>
       <c r="V4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="W4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="X4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.38490117741905</v>
+        <v>41.384901177419</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4744,28 +4744,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334911</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641987</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4984,25 +4984,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
         <v>95.56103444839442</v>
@@ -5242,7 +5242,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5282,10 +5282,10 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N14" t="n">
         <v>2602.177459903277</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,34 +5367,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>786.6724891157203</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676631</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004706</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.425187676631</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>304.0396960664507</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>637.8590697562972</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1088.893283004706</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676631</v>
+        <v>2209.609207880055</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416725</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1088.893283004706</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676631</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416725</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160455</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036725</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6835,16 +6835,16 @@
         <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
         <v>800.7468040499223</v>
@@ -6923,52 +6923,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>810.872990474187</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722596</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524677</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647468</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7075,31 +7075,31 @@
         <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7117,16 +7117,16 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
@@ -7166,49 +7166,49 @@
         <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N38" t="n">
-        <v>2135.190356524677</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,7 +7351,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1928.524582776559</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524677</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7451,10 +7451,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
@@ -7564,10 +7564,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
@@ -7576,16 +7576,16 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,49 +7634,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1771.984857554752</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N44" t="n">
-        <v>2135.190356524677</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7801,22 +7801,22 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
         <v>1910.743863481264</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>77.53430065177923</v>
+        <v>77.53430065177938</v>
       </c>
       <c r="K3" t="n">
-        <v>53.57420189668797</v>
+        <v>53.57420189668819</v>
       </c>
       <c r="L3" t="n">
-        <v>337.7943315995366</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>432.6590500460762</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.48321557772681</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>128.7323010770077</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.630896635344584</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571619286</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>102.8529310510287</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.7975057161928</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>288.7672650676793</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>19.79750571619286</v>
+        <v>107.5040408147568</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>388.4310778980905</v>
       </c>
       <c r="M32" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>40.02214132148788</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>65.51711806374396</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>124.5185911550049</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>343.5485285966311</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>124.5185911550049</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>231.106682116138</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>124.5185911550049</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.4048785054491</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>349.9575007754389</v>
+        <v>14.3274040337309</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4861680993369</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3373906874019</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>62.42785781152648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>251.9571083200605</v>
       </c>
       <c r="V4" t="n">
-        <v>60.17783149593944</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>53.73645647354633</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370469</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328921</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1310454.644074239</v>
+        <v>1310454.64407424</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1414084.063849756</v>
+        <v>1414084.063849755</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1414084.063849755</v>
+        <v>1414084.063849756</v>
       </c>
     </row>
     <row r="10">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407149.1034425579</v>
+        <v>407149.1034425569</v>
       </c>
       <c r="C3" t="n">
-        <v>173763.5037905489</v>
+        <v>173763.5037905498</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172931.4978406819</v>
+        <v>172931.4978406818</v>
       </c>
       <c r="K3" t="n">
-        <v>40400.60123641962</v>
+        <v>40400.60123641981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950524</v>
+        <v>84741.61795950531</v>
       </c>
       <c r="N3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>6.252776074688882e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487398</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189034.5084752308</v>
+        <v>189034.5084752311</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="J4" t="n">
-        <v>40547.88465321287</v>
+        <v>40547.8846532129</v>
       </c>
       <c r="K4" t="n">
-        <v>40547.88465321287</v>
+        <v>40547.88465321288</v>
       </c>
       <c r="L4" t="n">
         <v>40547.88465321287</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777375</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777379</v>
+        <v>62292.7825277738</v>
       </c>
       <c r="O4" t="n">
         <v>62292.78252777374</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777376</v>
+        <v>62292.78252777379</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70369.11453112286</v>
+        <v>70369.1145311228</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26500,7 +26500,7 @@
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-666552.7264489115</v>
+        <v>-666819.9974915491</v>
       </c>
       <c r="C6" t="n">
-        <v>-457687.0877816899</v>
+        <v>-457687.0877816908</v>
       </c>
       <c r="D6" t="n">
-        <v>-283923.583991141</v>
+        <v>-283923.5839911409</v>
       </c>
       <c r="E6" t="n">
-        <v>-848851.6559221142</v>
+        <v>-848918.85141234</v>
       </c>
       <c r="F6" t="n">
-        <v>-121474.2419287075</v>
+        <v>-121541.4374189333</v>
       </c>
       <c r="G6" t="n">
-        <v>-121474.2419287075</v>
+        <v>-121541.4374189333</v>
       </c>
       <c r="H6" t="n">
-        <v>-121474.2419287075</v>
+        <v>-121541.4374189333</v>
       </c>
       <c r="I6" t="n">
-        <v>-121474.2419287075</v>
+        <v>-121541.4374189333</v>
       </c>
       <c r="J6" t="n">
-        <v>-313812.0535079969</v>
+        <v>-313812.0535079968</v>
       </c>
       <c r="K6" t="n">
-        <v>-181281.1569037346</v>
+        <v>-181281.1569037348</v>
       </c>
       <c r="L6" t="n">
         <v>-140880.555667315</v>
       </c>
       <c r="M6" t="n">
-        <v>-236412.3421620851</v>
+        <v>-236412.3421620852</v>
       </c>
       <c r="N6" t="n">
         <v>-151670.72420258</v>
       </c>
       <c r="O6" t="n">
-        <v>-189250.8334974539</v>
+        <v>-189250.8334974538</v>
       </c>
       <c r="P6" t="n">
         <v>-151670.7242025799</v>
@@ -26716,10 +26716,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992837</v>
+        <v>242.614203499283</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177381</v>
+        <v>517.3112647177375</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6142034992837</v>
+        <v>242.614203499283</v>
       </c>
       <c r="C3" t="n">
-        <v>135.129460717803</v>
+        <v>135.1294607178037</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.3112647177381</v>
+        <v>517.3112647177375</v>
       </c>
       <c r="C4" t="n">
-        <v>156.9760080368174</v>
+        <v>156.9760080368181</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177381</v>
+        <v>517.3112647177375</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368174</v>
+        <v>156.9760080368181</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540588</v>
+        <v>340.0491884540589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.3112647177381</v>
+        <v>517.3112647177375</v>
       </c>
       <c r="K4" t="n">
-        <v>156.9760080368174</v>
+        <v>156.9760080368181</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>29.93898765193416</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>172.8743455285723</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>88.60232613989589</v>
+        <v>88.60232613989606</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>92.54748487806596</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2676262293242</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.39639036456759</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.085427182629388</v>
+        <v>136.8216677443631</v>
       </c>
       <c r="H3" t="n">
         <v>107.1954774807849</v>
       </c>
       <c r="I3" t="n">
-        <v>71.42944891302473</v>
+        <v>71.42944891302477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.5534783357551</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>158.3373906874019</v>
       </c>
       <c r="I4" t="n">
         <v>142.2936259899529</v>
       </c>
       <c r="J4" t="n">
-        <v>62.42785781152639</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>157.6217544836046</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>216.3921483958554</v>
+        <v>216.3921483958555</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2951656643434</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.99689532463617</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.23311616204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822005</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859318</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859263</v>
       </c>
     </row>
     <row r="41">
@@ -30475,10 +30475,10 @@
         <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859193</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9753334814041548</v>
+        <v>0.9753334814041522</v>
       </c>
       <c r="H2" t="n">
-        <v>9.988634016430304</v>
+        <v>9.988634016430275</v>
       </c>
       <c r="I2" t="n">
-        <v>37.60154404183371</v>
+        <v>37.60154404183361</v>
       </c>
       <c r="J2" t="n">
-        <v>82.78021006732595</v>
+        <v>82.78021006732574</v>
       </c>
       <c r="K2" t="n">
-        <v>124.0660763351639</v>
+        <v>124.0660763351635</v>
       </c>
       <c r="L2" t="n">
-        <v>153.9149383666863</v>
+        <v>153.9149383666859</v>
       </c>
       <c r="M2" t="n">
-        <v>171.2600251666074</v>
+        <v>171.260025166607</v>
       </c>
       <c r="N2" t="n">
-        <v>174.031191420647</v>
+        <v>174.0311914206465</v>
       </c>
       <c r="O2" t="n">
-        <v>164.3327191149344</v>
+        <v>164.332719114934</v>
       </c>
       <c r="P2" t="n">
-        <v>140.2541737927693</v>
+        <v>140.2541737927689</v>
       </c>
       <c r="Q2" t="n">
-        <v>105.325043489983</v>
+        <v>105.3250434899827</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2667918012538</v>
+        <v>61.26679180125362</v>
       </c>
       <c r="S2" t="n">
-        <v>22.2254117074972</v>
+        <v>22.22541170749714</v>
       </c>
       <c r="T2" t="n">
-        <v>4.269522314846689</v>
+        <v>4.269522314846678</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07802667851233237</v>
+        <v>0.07802667851233216</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5218494188475159</v>
+        <v>0.5218494188475145</v>
       </c>
       <c r="H3" t="n">
-        <v>5.039966755711536</v>
+        <v>5.039966755711522</v>
       </c>
       <c r="I3" t="n">
-        <v>17.96718393839035</v>
+        <v>17.9671839383903</v>
       </c>
       <c r="J3" t="n">
-        <v>49.30332601488746</v>
+        <v>49.30332601488733</v>
       </c>
       <c r="K3" t="n">
-        <v>84.26723707767103</v>
+        <v>84.2672370776708</v>
       </c>
       <c r="L3" t="n">
-        <v>113.3076994738872</v>
+        <v>113.3076994738869</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2247409071096</v>
+        <v>132.2247409071092</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7243363519248</v>
+        <v>135.7243363519244</v>
       </c>
       <c r="O3" t="n">
-        <v>124.1612518606193</v>
+        <v>124.1612518606189</v>
       </c>
       <c r="P3" t="n">
-        <v>99.65035086746995</v>
+        <v>99.65035086746968</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.6136205532373</v>
+        <v>66.61362055323711</v>
       </c>
       <c r="R3" t="n">
-        <v>32.40044023335718</v>
+        <v>32.4004402333571</v>
       </c>
       <c r="S3" t="n">
-        <v>9.693124073768544</v>
+        <v>9.693124073768519</v>
       </c>
       <c r="T3" t="n">
-        <v>2.103419368073978</v>
+        <v>2.103419368073972</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03433219860838922</v>
+        <v>0.03433219860838913</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4375010227036263</v>
+        <v>0.4375010227036251</v>
       </c>
       <c r="H4" t="n">
-        <v>3.889781820037698</v>
+        <v>3.889781820037688</v>
       </c>
       <c r="I4" t="n">
-        <v>13.15684893730542</v>
+        <v>13.15684893730538</v>
       </c>
       <c r="J4" t="n">
-        <v>30.93132230514638</v>
+        <v>30.93132230514629</v>
       </c>
       <c r="K4" t="n">
-        <v>50.8296642741122</v>
+        <v>50.82966427411207</v>
       </c>
       <c r="L4" t="n">
-        <v>65.04447022995551</v>
+        <v>65.04447022995532</v>
       </c>
       <c r="M4" t="n">
-        <v>68.5802739498057</v>
+        <v>68.58027394980552</v>
       </c>
       <c r="N4" t="n">
-        <v>66.9495883197286</v>
+        <v>66.94958831972842</v>
       </c>
       <c r="O4" t="n">
-        <v>61.83878091814531</v>
+        <v>61.83878091814514</v>
       </c>
       <c r="P4" t="n">
-        <v>52.91376005499129</v>
+        <v>52.91376005499114</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.63474472839184</v>
+        <v>36.63474472839174</v>
       </c>
       <c r="R4" t="n">
-        <v>19.67163689356486</v>
+        <v>19.67163689356481</v>
       </c>
       <c r="S4" t="n">
-        <v>7.62444964111683</v>
+        <v>7.62444964111681</v>
       </c>
       <c r="T4" t="n">
-        <v>1.869322551551857</v>
+        <v>1.869322551551852</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02386369214747055</v>
+        <v>0.02386369214747049</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>70.83092071271344</v>
+        <v>70.83092071271322</v>
       </c>
       <c r="K2" t="n">
-        <v>228.1216378613481</v>
+        <v>228.1216378613477</v>
       </c>
       <c r="L2" t="n">
-        <v>335.8097379471495</v>
+        <v>335.8097379471491</v>
       </c>
       <c r="M2" t="n">
-        <v>390.4273254321672</v>
+        <v>390.4273254321668</v>
       </c>
       <c r="N2" t="n">
-        <v>381.9650522360403</v>
+        <v>381.9650522360398</v>
       </c>
       <c r="O2" t="n">
-        <v>315.034688955993</v>
+        <v>315.0346889559926</v>
       </c>
       <c r="P2" t="n">
-        <v>230.8198862089824</v>
+        <v>230.819886208982</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.33434427543818</v>
+        <v>95.3343442754379</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>312.5476512935496</v>
+        <v>345.5936649974719</v>
       </c>
       <c r="M3" t="n">
-        <v>455.7957707350912</v>
+        <v>422.7497570311672</v>
       </c>
       <c r="N3" t="n">
-        <v>483.724998612145</v>
+        <v>483.7249986121446</v>
       </c>
       <c r="O3" t="n">
-        <v>375.4273266929043</v>
+        <v>375.427326692904</v>
       </c>
       <c r="P3" t="n">
-        <v>284.1387120930769</v>
+        <v>284.1387120930766</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.7091342030649</v>
+        <v>136.7091342030647</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.56017244822935</v>
+        <v>28.56017244822922</v>
       </c>
       <c r="L4" t="n">
-        <v>92.63449549027165</v>
+        <v>92.63449549027146</v>
       </c>
       <c r="M4" t="n">
-        <v>108.1641509116463</v>
+        <v>108.1641509116461</v>
       </c>
       <c r="N4" t="n">
-        <v>111.0817606989572</v>
+        <v>111.081760698957</v>
       </c>
       <c r="O4" t="n">
-        <v>86.42390883218499</v>
+        <v>86.42390883218482</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19231931988477</v>
+        <v>50.19231931988463</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>578.4043314079536</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>507.3053774831317</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464197</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>584.3224154693396</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>559.9327320482561</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>475.387620108525</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>655.1547664639399</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.5845066849054</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>827.6883808979059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>475.387620108525</v>
+        <v>563.0941552070888</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>844.0211922904224</v>
       </c>
       <c r="M32" t="n">
-        <v>558.7186215464197</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768883</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>632.571592043224</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>604.4382338939705</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>632.571592043224</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889631</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>632.571592043224</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>686.6967965084699</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>632.571592043224</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
